--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Intellect Design Arena Ltd/Pruned_Excel/Semi_Final/Intellect Design Arena Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Intellect Design Arena Ltd/Pruned_Excel/Semi_Final/Intellect Design Arena Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="102">
   <si>
     <t>Balance Sheet of Intellect Design Arena(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,34 +62,37 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Intellect Design Arena(in Rs. Cr.)</t>
@@ -185,9 +191,6 @@
     <t>Quarterly Results of Intellect Design Arena(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -248,40 +251,7 @@
     <t>2014</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -711,13 +681,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,414 +727,447 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
         <v>50.1</v>
-      </c>
-      <c r="C2">
-        <v>471.47</v>
       </c>
       <c r="D2">
         <v>471.47</v>
       </c>
       <c r="E2">
+        <v>471.47</v>
+      </c>
+      <c r="F2">
         <v>521.5700000000001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>58.97</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>163.85</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>698.86</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>101.83</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>148.21</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>323.25</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>375.62</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>698.86</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
         <v>50.39</v>
-      </c>
-      <c r="C3">
-        <v>507.42</v>
       </c>
       <c r="D3">
         <v>507.42</v>
       </c>
       <c r="E3">
+        <v>507.42</v>
+      </c>
+      <c r="F3">
         <v>557.8099999999999</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>55.67</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>204.02</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>761.83</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>144.56</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>188.2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>396.79</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>365.04</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>761.83</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
         <v>50.87</v>
-      </c>
-      <c r="C4">
-        <v>473.76</v>
       </c>
       <c r="D4">
         <v>473.76</v>
       </c>
       <c r="E4">
+        <v>473.76</v>
+      </c>
+      <c r="F4">
         <v>524.62</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>87.13</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>326.48</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>907.4299999999999</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>161.12</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>236.83</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>443.54</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>463.88</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>907.4299999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
         <v>62.76</v>
-      </c>
-      <c r="C5">
-        <v>639.6</v>
       </c>
       <c r="D5">
         <v>639.6</v>
       </c>
       <c r="E5">
+        <v>639.6</v>
+      </c>
+      <c r="F5">
         <v>702.36</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>150.84</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>284.66</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1077.51</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>146.5</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>308.51</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>522.05</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>555.46</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1077.51</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
         <v>65.89</v>
-      </c>
-      <c r="C6">
-        <v>864.33</v>
       </c>
       <c r="D6">
         <v>864.33</v>
       </c>
       <c r="E6">
+        <v>864.33</v>
+      </c>
+      <c r="F6">
         <v>930.22</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>192.27</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>375.49</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1371.67</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>138.94</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>376.31</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>634.2</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>737.46</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1371.67</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
         <v>66.17</v>
-      </c>
-      <c r="C7">
-        <v>826.91</v>
       </c>
       <c r="D7">
         <v>826.91</v>
       </c>
       <c r="E7">
+        <v>826.91</v>
+      </c>
+      <c r="F7">
         <v>893.08</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>179.6</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>564.89</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1522.63</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>143.53</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>441.8</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>682.23</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>840.4</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1522.63</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
         <v>66.48999999999999</v>
-      </c>
-      <c r="C8">
-        <v>1119.6</v>
       </c>
       <c r="D8">
         <v>1119.6</v>
       </c>
       <c r="E8">
+        <v>1119.6</v>
+      </c>
+      <c r="F8">
         <v>1186.09</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>317.98</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>536.9400000000001</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1737.08</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>122.07</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>460.85</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>730.5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1006.58</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1737.08</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
         <v>67.28</v>
-      </c>
-      <c r="C9">
-        <v>1388.12</v>
       </c>
       <c r="D9">
         <v>1388.12</v>
       </c>
       <c r="E9">
+        <v>1388.12</v>
+      </c>
+      <c r="F9">
         <v>1455.4</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>356.33</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>702.5</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2161.01</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>112.15</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>492.37</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>770.27</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1390.75</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2161.01</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
         <v>67.86</v>
-      </c>
-      <c r="C10">
-        <v>1477.42</v>
       </c>
       <c r="D10">
         <v>1477.42</v>
       </c>
       <c r="E10">
+        <v>1477.42</v>
+      </c>
+      <c r="F10">
         <v>1545.29</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>387.04</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>803.49</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2359.77</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>116.69</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>564.2</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1167.26</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1192.51</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2359.77</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
         <v>68.41</v>
-      </c>
-      <c r="C11">
-        <v>1689.02</v>
       </c>
       <c r="D11">
         <v>1689.02</v>
       </c>
       <c r="E11">
+        <v>1689.02</v>
+      </c>
+      <c r="F11">
         <v>1757.43</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>451.43</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>940.4</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2745.89</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>117.43</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>596.4</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1264.15</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1481.74</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2745.89</v>
       </c>
     </row>
@@ -1175,328 +1178,361 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>-73.79000000000001</v>
+      </c>
+      <c r="D2">
+        <v>-44.95</v>
+      </c>
+      <c r="E2">
+        <v>-163.75</v>
+      </c>
+      <c r="F2">
+        <v>1.68</v>
+      </c>
+      <c r="G2">
+        <v>0.03</v>
+      </c>
+      <c r="H2">
+        <v>34.93</v>
+      </c>
+      <c r="I2">
+        <v>0.05</v>
+      </c>
+      <c r="J2">
+        <v>34.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>21.94</v>
+      </c>
+      <c r="D3">
+        <v>-102.21</v>
+      </c>
+      <c r="E3">
+        <v>59.74</v>
+      </c>
+      <c r="F3">
+        <v>17.42</v>
+      </c>
+      <c r="G3">
+        <v>-0.12</v>
+      </c>
+      <c r="H3">
+        <v>-25.16</v>
+      </c>
+      <c r="I3">
+        <v>34.98</v>
+      </c>
+      <c r="J3">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>-56.15</v>
+      </c>
+      <c r="D4">
+        <v>-120.44</v>
+      </c>
+      <c r="E4">
+        <v>-76.31</v>
+      </c>
+      <c r="F4">
+        <v>154.56</v>
+      </c>
+      <c r="G4">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="H4">
+        <v>-42.26</v>
+      </c>
+      <c r="I4">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="J4">
+        <v>-33.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>11.75</v>
+      </c>
+      <c r="E5">
+        <v>-108.52</v>
+      </c>
+      <c r="F5">
+        <v>143.29</v>
+      </c>
+      <c r="G5">
+        <v>-0.12</v>
+      </c>
+      <c r="H5">
+        <v>46.41</v>
+      </c>
+      <c r="I5">
+        <v>-32.61</v>
+      </c>
+      <c r="J5">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-84.68000000000001</v>
+      </c>
+      <c r="E6">
+        <v>27.36</v>
+      </c>
+      <c r="F6">
+        <v>62.3</v>
+      </c>
+      <c r="G6">
+        <v>0.02</v>
+      </c>
+      <c r="H6">
+        <v>4.99</v>
+      </c>
+      <c r="I6">
+        <v>13.8</v>
+      </c>
+      <c r="J6">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>-19.75</v>
+      </c>
+      <c r="D7">
+        <v>-10.46</v>
+      </c>
+      <c r="E7">
+        <v>-59.93</v>
+      </c>
+      <c r="F7">
+        <v>87.31</v>
+      </c>
+      <c r="G7">
+        <v>0.24</v>
+      </c>
+      <c r="H7">
+        <v>17.16</v>
+      </c>
+      <c r="I7">
+        <v>18.8</v>
+      </c>
+      <c r="J7">
+        <v>35.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>222.58</v>
+      </c>
+      <c r="D8">
+        <v>377.58</v>
+      </c>
+      <c r="E8">
+        <v>-149.98</v>
+      </c>
+      <c r="F8">
+        <v>-218.76</v>
+      </c>
+      <c r="G8">
+        <v>-0.67</v>
+      </c>
+      <c r="H8">
+        <v>8.17</v>
+      </c>
+      <c r="I8">
+        <v>35.96</v>
+      </c>
+      <c r="J8">
+        <v>44.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>264.38</v>
+      </c>
+      <c r="D9">
+        <v>462.28</v>
+      </c>
+      <c r="E9">
+        <v>-396.32</v>
+      </c>
+      <c r="F9">
+        <v>-40.15</v>
+      </c>
+      <c r="G9">
+        <v>0.39</v>
+      </c>
+      <c r="H9">
+        <v>26.2</v>
+      </c>
+      <c r="I9">
+        <v>44.13</v>
+      </c>
+      <c r="J9">
+        <v>70.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>202.3</v>
+      </c>
+      <c r="D10">
+        <v>164.16</v>
+      </c>
+      <c r="E10">
+        <v>-153.86</v>
+      </c>
+      <c r="F10">
+        <v>-35.35</v>
+      </c>
+      <c r="G10">
+        <v>0.29</v>
+      </c>
+      <c r="H10">
+        <v>-24.77</v>
+      </c>
+      <c r="I10">
+        <v>70.33</v>
+      </c>
+      <c r="J10">
+        <v>45.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>-73.79000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-44.95</v>
-      </c>
-      <c r="D2">
-        <v>-163.75</v>
-      </c>
-      <c r="E2">
-        <v>1.68</v>
-      </c>
-      <c r="F2">
-        <v>0.03</v>
-      </c>
-      <c r="G2">
-        <v>34.93</v>
-      </c>
-      <c r="H2">
-        <v>0.05</v>
-      </c>
-      <c r="I2">
-        <v>34.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>21.94</v>
-      </c>
-      <c r="C3">
-        <v>-102.21</v>
-      </c>
-      <c r="D3">
-        <v>59.74</v>
-      </c>
-      <c r="E3">
-        <v>17.42</v>
-      </c>
-      <c r="F3">
-        <v>-0.12</v>
-      </c>
-      <c r="G3">
-        <v>-25.16</v>
-      </c>
-      <c r="H3">
-        <v>34.98</v>
-      </c>
-      <c r="I3">
-        <v>9.82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>-56.15</v>
-      </c>
-      <c r="C4">
-        <v>-120.44</v>
-      </c>
-      <c r="D4">
-        <v>-76.31</v>
-      </c>
-      <c r="E4">
-        <v>154.56</v>
-      </c>
-      <c r="F4">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="G4">
-        <v>-42.26</v>
-      </c>
-      <c r="H4">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="I4">
-        <v>-33.73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>11.75</v>
-      </c>
-      <c r="D5">
-        <v>-108.52</v>
-      </c>
-      <c r="E5">
-        <v>143.29</v>
-      </c>
-      <c r="F5">
-        <v>-0.12</v>
-      </c>
-      <c r="G5">
-        <v>46.41</v>
-      </c>
-      <c r="H5">
-        <v>-32.61</v>
-      </c>
-      <c r="I5">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-84.68000000000001</v>
-      </c>
-      <c r="D6">
-        <v>27.36</v>
-      </c>
-      <c r="E6">
-        <v>62.3</v>
-      </c>
-      <c r="F6">
-        <v>0.02</v>
-      </c>
-      <c r="G6">
-        <v>4.99</v>
-      </c>
-      <c r="H6">
-        <v>13.8</v>
-      </c>
-      <c r="I6">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>-19.75</v>
-      </c>
-      <c r="C7">
-        <v>-10.46</v>
-      </c>
-      <c r="D7">
-        <v>-59.93</v>
-      </c>
-      <c r="E7">
-        <v>87.31</v>
-      </c>
-      <c r="F7">
-        <v>0.24</v>
-      </c>
-      <c r="G7">
-        <v>17.16</v>
-      </c>
-      <c r="H7">
-        <v>18.8</v>
-      </c>
-      <c r="I7">
-        <v>35.96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>222.58</v>
-      </c>
-      <c r="C8">
-        <v>377.58</v>
-      </c>
-      <c r="D8">
-        <v>-149.98</v>
-      </c>
-      <c r="E8">
-        <v>-218.76</v>
-      </c>
-      <c r="F8">
-        <v>-0.67</v>
-      </c>
-      <c r="G8">
-        <v>8.17</v>
-      </c>
-      <c r="H8">
-        <v>35.96</v>
-      </c>
-      <c r="I8">
-        <v>44.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>264.38</v>
-      </c>
-      <c r="C9">
-        <v>462.28</v>
-      </c>
-      <c r="D9">
-        <v>-396.32</v>
-      </c>
-      <c r="E9">
-        <v>-40.15</v>
-      </c>
-      <c r="F9">
-        <v>0.39</v>
-      </c>
-      <c r="G9">
-        <v>26.2</v>
-      </c>
-      <c r="H9">
-        <v>44.13</v>
-      </c>
-      <c r="I9">
-        <v>70.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>202.3</v>
-      </c>
-      <c r="C10">
-        <v>164.16</v>
-      </c>
-      <c r="D10">
-        <v>-153.86</v>
-      </c>
-      <c r="E10">
-        <v>-35.35</v>
-      </c>
-      <c r="F10">
-        <v>0.29</v>
-      </c>
-      <c r="G10">
-        <v>-24.77</v>
-      </c>
-      <c r="H10">
-        <v>70.33</v>
-      </c>
-      <c r="I10">
+      <c r="C11">
+        <v>265.11</v>
+      </c>
+      <c r="D11">
+        <v>256.36</v>
+      </c>
+      <c r="E11">
+        <v>-198.31</v>
+      </c>
+      <c r="F11">
+        <v>-36.99</v>
+      </c>
+      <c r="G11">
+        <v>0.19</v>
+      </c>
+      <c r="H11">
+        <v>21.25</v>
+      </c>
+      <c r="I11">
         <v>45.56</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>265.11</v>
-      </c>
-      <c r="C11">
-        <v>256.36</v>
-      </c>
-      <c r="D11">
-        <v>-198.31</v>
-      </c>
-      <c r="E11">
-        <v>-36.99</v>
-      </c>
-      <c r="F11">
-        <v>0.19</v>
-      </c>
-      <c r="G11">
-        <v>21.25</v>
-      </c>
-      <c r="H11">
-        <v>45.56</v>
-      </c>
-      <c r="I11">
+      <c r="J11">
         <v>66.81</v>
       </c>
     </row>
@@ -1507,86 +1543,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>54</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>453.1</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
       </c>
       <c r="C2">
         <v>453.1</v>
@@ -1595,46 +1634,46 @@
         <v>453.1</v>
       </c>
       <c r="E2">
+        <v>453.1</v>
+      </c>
+      <c r="F2">
         <v>22.04</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>475.14</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>433.02</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>17.06</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>98.84999999999999</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>548.9299999999999</v>
-      </c>
-      <c r="M2">
-        <v>-73.79000000000001</v>
       </c>
       <c r="N2">
         <v>-73.79000000000001</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-73.79000000000001</v>
       </c>
       <c r="P2">
-        <v>-2.61</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>-2.61</v>
       </c>
       <c r="R2">
-        <v>-71.18000000000001</v>
+        <v>-2.61</v>
       </c>
       <c r="S2">
         <v>-71.18000000000001</v>
@@ -1643,18 +1682,21 @@
         <v>-71.18000000000001</v>
       </c>
       <c r="U2">
-        <v>-7.12</v>
+        <v>-71.18000000000001</v>
       </c>
       <c r="V2">
         <v>-7.12</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>-7.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>546.11</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
       </c>
       <c r="C3">
         <v>546.11</v>
@@ -1663,46 +1705,46 @@
         <v>546.11</v>
       </c>
       <c r="E3">
+        <v>546.11</v>
+      </c>
+      <c r="F3">
         <v>17.57</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>563.67</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>416.53</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>19.05</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>106.06</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>541.73</v>
-      </c>
-      <c r="M3">
-        <v>21.94</v>
       </c>
       <c r="N3">
         <v>21.94</v>
       </c>
       <c r="O3">
+        <v>21.94</v>
+      </c>
+      <c r="P3">
         <v>4.06</v>
-      </c>
-      <c r="P3">
-        <v>-10.75</v>
       </c>
       <c r="Q3">
         <v>-10.75</v>
       </c>
       <c r="R3">
-        <v>32.69</v>
+        <v>-10.75</v>
       </c>
       <c r="S3">
         <v>32.69</v>
@@ -1711,18 +1753,21 @@
         <v>32.69</v>
       </c>
       <c r="U3">
+        <v>32.69</v>
+      </c>
+      <c r="V3">
         <v>3.25</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>3.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>521.37</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
       </c>
       <c r="C4">
         <v>521.37</v>
@@ -1731,37 +1776,37 @@
         <v>521.37</v>
       </c>
       <c r="E4">
+        <v>521.37</v>
+      </c>
+      <c r="F4">
         <v>27.06</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>548.4400000000001</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>442.2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>10.52</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>22.61</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>129.26</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>604.58</v>
-      </c>
-      <c r="M4">
-        <v>-56.15</v>
       </c>
       <c r="N4">
         <v>-56.15</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-56.15</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1770,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>-56.15</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>-56.15</v>
@@ -1779,18 +1824,21 @@
         <v>-56.15</v>
       </c>
       <c r="U4">
-        <v>-5.24</v>
+        <v>-56.15</v>
       </c>
       <c r="V4">
         <v>-5.24</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>-5.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>681.1900000000001</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
       </c>
       <c r="C5">
         <v>681.1900000000001</v>
@@ -1799,46 +1847,46 @@
         <v>681.1900000000001</v>
       </c>
       <c r="E5">
+        <v>681.1900000000001</v>
+      </c>
+      <c r="F5">
         <v>25.54</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>706.74</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>473.25</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>13.73</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>25.14</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>159.41</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>671.53</v>
-      </c>
-      <c r="M5">
-        <v>35.21</v>
       </c>
       <c r="N5">
         <v>35.21</v>
       </c>
       <c r="O5">
+        <v>35.21</v>
+      </c>
+      <c r="P5">
         <v>9.16</v>
-      </c>
-      <c r="P5">
-        <v>2.2</v>
       </c>
       <c r="Q5">
         <v>2.2</v>
       </c>
       <c r="R5">
-        <v>33</v>
+        <v>2.2</v>
       </c>
       <c r="S5">
         <v>33</v>
@@ -1847,18 +1895,21 @@
         <v>33</v>
       </c>
       <c r="U5">
+        <v>33</v>
+      </c>
+      <c r="V5">
         <v>2.81</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>2.73</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>936.6</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
       </c>
       <c r="C6">
         <v>936.6</v>
@@ -1867,46 +1918,46 @@
         <v>936.6</v>
       </c>
       <c r="E6">
+        <v>936.6</v>
+      </c>
+      <c r="F6">
         <v>56.16</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>992.76</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>625.6900000000001</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>11.4</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>34.94</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>177.93</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>849.96</v>
-      </c>
-      <c r="M6">
-        <v>142.8</v>
       </c>
       <c r="N6">
         <v>142.8</v>
       </c>
       <c r="O6">
+        <v>142.8</v>
+      </c>
+      <c r="P6">
         <v>34.14</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-2.2</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>5.71</v>
-      </c>
-      <c r="R6">
-        <v>137.09</v>
       </c>
       <c r="S6">
         <v>137.09</v>
@@ -1915,18 +1966,21 @@
         <v>137.09</v>
       </c>
       <c r="U6">
+        <v>137.09</v>
+      </c>
+      <c r="V6">
         <v>10.63</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>10.39</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>741.33</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
       </c>
       <c r="C7">
         <v>741.33</v>
@@ -1935,46 +1989,46 @@
         <v>741.33</v>
       </c>
       <c r="E7">
+        <v>741.33</v>
+      </c>
+      <c r="F7">
         <v>22.99</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>764.3200000000001</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>31.73</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>461.66</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>15.8</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>48.57</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>231.37</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>789.12</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-24.81</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-19.75</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
       <c r="P7">
-        <v>11.53</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>11.53</v>
       </c>
       <c r="R7">
-        <v>-31.28</v>
+        <v>11.53</v>
       </c>
       <c r="S7">
         <v>-31.28</v>
@@ -1983,18 +2037,21 @@
         <v>-31.28</v>
       </c>
       <c r="U7">
-        <v>-2.37</v>
+        <v>-31.28</v>
       </c>
       <c r="V7">
         <v>-2.37</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>-2.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>1003.23</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1003.23</v>
@@ -2003,46 +2060,46 @@
         <v>1003.23</v>
       </c>
       <c r="E8">
+        <v>1003.23</v>
+      </c>
+      <c r="F8">
         <v>15.38</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1018.61</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>52.74</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>493.77</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>7.5</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>50.01</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>192.01</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>796.03</v>
-      </c>
-      <c r="M8">
-        <v>222.58</v>
       </c>
       <c r="N8">
         <v>222.58</v>
       </c>
       <c r="O8">
+        <v>222.58</v>
+      </c>
+      <c r="P8">
         <v>51.41</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-36.08</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>15.33</v>
-      </c>
-      <c r="R8">
-        <v>207.25</v>
       </c>
       <c r="S8">
         <v>207.25</v>
@@ -2051,18 +2108,21 @@
         <v>207.25</v>
       </c>
       <c r="U8">
+        <v>207.25</v>
+      </c>
+      <c r="V8">
         <v>15.63</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>15.42</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>1266.77</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1266.77</v>
@@ -2071,46 +2131,46 @@
         <v>1266.77</v>
       </c>
       <c r="E9">
+        <v>1266.77</v>
+      </c>
+      <c r="F9">
         <v>24.59</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1291.36</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>558.25</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2.96</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>69.03</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>396.74</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1026.98</v>
-      </c>
-      <c r="M9">
-        <v>264.38</v>
       </c>
       <c r="N9">
         <v>264.38</v>
       </c>
       <c r="O9">
+        <v>264.38</v>
+      </c>
+      <c r="P9">
         <v>45.7</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>19.59</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>62.29</v>
-      </c>
-      <c r="R9">
-        <v>202.08</v>
       </c>
       <c r="S9">
         <v>202.08</v>
@@ -2119,18 +2179,21 @@
         <v>202.08</v>
       </c>
       <c r="U9">
+        <v>202.08</v>
+      </c>
+      <c r="V9">
         <v>15.19</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>14.55</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>1470.11</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1470.11</v>
@@ -2139,46 +2202,46 @@
         <v>1470.11</v>
       </c>
       <c r="E10">
+        <v>1470.11</v>
+      </c>
+      <c r="F10">
         <v>44.35</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1514.46</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>713.45</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2.19</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>80.06999999999999</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>516.4400000000001</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1312.16</v>
-      </c>
-      <c r="M10">
-        <v>202.3</v>
       </c>
       <c r="N10">
         <v>202.3</v>
       </c>
       <c r="O10">
+        <v>202.3</v>
+      </c>
+      <c r="P10">
         <v>70.27</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-1.97</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>68.3</v>
-      </c>
-      <c r="R10">
-        <v>133.99</v>
       </c>
       <c r="S10">
         <v>133.99</v>
@@ -2187,18 +2250,21 @@
         <v>133.99</v>
       </c>
       <c r="U10">
+        <v>133.99</v>
+      </c>
+      <c r="V10">
         <v>9.98</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>9.640000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>1678.94</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
       <c r="C11">
         <v>1678.94</v>
@@ -2207,46 +2273,46 @@
         <v>1678.94</v>
       </c>
       <c r="E11">
+        <v>1678.94</v>
+      </c>
+      <c r="F11">
         <v>56.31</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1735.25</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>839.54</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.83</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>89.25</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>540.52</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1470.14</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>265.11</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>252.6</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>103.24</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-16.24</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>87</v>
-      </c>
-      <c r="R11">
-        <v>165.6</v>
       </c>
       <c r="S11">
         <v>165.6</v>
@@ -2255,9 +2321,12 @@
         <v>165.6</v>
       </c>
       <c r="U11">
+        <v>165.6</v>
+      </c>
+      <c r="V11">
         <v>12.23</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>11.78</v>
       </c>
     </row>
@@ -2276,84 +2345,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>118.87</v>
@@ -2418,13 +2487,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>124.08</v>
@@ -2489,13 +2558,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>120.94</v>
@@ -2560,13 +2629,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>142.59</v>
@@ -2631,13 +2700,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>136.18</v>
@@ -2702,13 +2771,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>146.4</v>
@@ -2773,13 +2842,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>130.23</v>
@@ -2844,13 +2913,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>125.86</v>
@@ -2915,13 +2984,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>124.89</v>
@@ -2986,13 +3055,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>135.99</v>
@@ -3057,13 +3126,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>123.1</v>
@@ -3128,13 +3197,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>152.78</v>
@@ -3199,13 +3268,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D14">
         <v>178.11</v>
@@ -3270,13 +3339,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D15">
         <v>217.48</v>
@@ -3341,13 +3410,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>194.16</v>
@@ -3412,13 +3481,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>79</v>
       </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <v>253.04</v>
@@ -3483,13 +3552,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <v>234.64</v>
@@ -3554,13 +3623,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D19">
         <v>248.91</v>
@@ -3625,13 +3694,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D20">
         <v>175.31</v>
@@ -3696,13 +3765,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D21">
         <v>180.6</v>
@@ -3767,13 +3836,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
         <v>80</v>
-      </c>
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
       </c>
       <c r="D22">
         <v>181.76</v>
@@ -3838,13 +3907,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
         <v>81</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>91</v>
       </c>
       <c r="D23">
         <v>203.67</v>
@@ -3909,13 +3978,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <v>212.81</v>
@@ -3980,13 +4049,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D25">
         <v>238.76</v>
@@ -4051,13 +4120,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D26">
         <v>271.36</v>
@@ -4122,13 +4191,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D27">
         <v>280.3</v>
@@ -4193,13 +4262,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
         <v>82</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
-        <v>92</v>
       </c>
       <c r="D28">
         <v>277.62</v>
@@ -4264,13 +4333,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D29">
         <v>313.27</v>
@@ -4335,13 +4404,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D30">
         <v>314.75</v>
@@ -4406,13 +4475,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D31">
         <v>349.37</v>
@@ -4477,13 +4546,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D32">
         <v>362.25</v>
@@ -4548,13 +4617,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
         <v>83</v>
-      </c>
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
       </c>
       <c r="D33">
         <v>348.11</v>
@@ -4619,13 +4688,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D34">
         <v>348.3</v>
@@ -4690,13 +4759,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D35">
         <v>411.45</v>
@@ -4761,13 +4830,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D36">
         <v>423.86</v>
@@ -4832,13 +4901,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D37">
         <v>407.72</v>
@@ -4903,13 +4972,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D38">
         <v>420.6</v>
@@ -4974,13 +5043,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D39">
         <v>426.76</v>
@@ -5045,13 +5114,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D40">
         <v>385.35</v>
@@ -5116,13 +5185,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D41">
         <v>334.16</v>
@@ -5192,108 +5261,111 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
         <v>45.22</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-5.66</v>
-      </c>
-      <c r="D2">
-        <v>-7.36</v>
       </c>
       <c r="E2">
         <v>-7.36</v>
       </c>
       <c r="F2">
+        <v>-7.36</v>
+      </c>
+      <c r="G2">
         <v>-7.1</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-12.52</v>
-      </c>
-      <c r="H2">
-        <v>-16.28</v>
       </c>
       <c r="I2">
         <v>-16.28</v>
       </c>
       <c r="J2">
+        <v>-16.28</v>
+      </c>
+      <c r="K2">
         <v>-15.7</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-13.64</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-10.18</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
@@ -5304,55 +5376,58 @@
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>1039.15</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>-18.32</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
         <v>54.19</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4.08</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.19</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.18</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3.24</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>7.52</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.03</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4.01</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5.98</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>5.86</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>4.29</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.03</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
@@ -5360,55 +5435,58 @@
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>2278.34</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>55.45</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
         <v>51.25</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-2.26</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-4.48</v>
-      </c>
-      <c r="E4">
-        <v>-5.52</v>
       </c>
       <c r="F4">
         <v>-5.52</v>
       </c>
       <c r="G4">
+        <v>-5.52</v>
+      </c>
+      <c r="H4">
         <v>-4.41</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-8.75</v>
-      </c>
-      <c r="I4">
-        <v>-10.76</v>
       </c>
       <c r="J4">
         <v>-10.76</v>
       </c>
       <c r="K4">
+        <v>-10.76</v>
+      </c>
+      <c r="L4">
         <v>-10.7</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-6.18</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.43</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
         <v>0</v>
       </c>
@@ -5416,55 +5494,58 @@
         <v>0</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>1342.98</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>-58.34</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
         <v>54.27</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5.9</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3.9</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.8</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.63</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>10.87</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>7.18</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5.16</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4.84</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>4.69</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3.06</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.18</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
         <v>0</v>
       </c>
@@ -5472,55 +5553,58 @@
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>2105.48</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>28.42</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
         <v>71.08</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>14.35</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>11.7</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>10.84</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10.4</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>20.19</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>16.46</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>15.24</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>14.63</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>14.73</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>9.99</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.11</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
@@ -5528,55 +5612,58 @@
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>2757.43</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>14.58</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
         <v>56.02</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2.99</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.68</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-1.49</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-2.36</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5.33</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-1.21</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-2.66</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-4.21</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-3.5</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-2.05</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.25</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
@@ -5584,55 +5671,58 @@
         <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>901.29</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>22.78</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
         <v>75.45</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>21.06</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>17.3</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>16.74</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>15.59</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>27.91</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>22.93</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>22.18</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>20.65</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>17.47</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>11.93</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.01</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
@@ -5640,52 +5730,55 @@
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>9790.85</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>34.96</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
         <v>94.15000000000001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>19.87</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>19.65</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>15.02</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>26.55</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>21.1</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>20.87</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>15.95</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>13.88</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>9.35</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
@@ -5696,121 +5789,130 @@
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>12668.09</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>37.66</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
         <v>108.32</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>20.97</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>15.07</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>14.91</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9.869999999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>19.35</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>13.9</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>13.76</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>9.109999999999999</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>8.67</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>5.67</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>25</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>15.65</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>75</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>5528.72</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>19.43</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
         <v>122.71</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>25.96</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>19.44</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>18.46</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>12.1</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>21.15</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>15.83</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>15.04</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>9.859999999999999</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>9.42</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>6.03</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>20.4</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>13.26</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>79.59999999999999</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>14950.77</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>42.09</v>
       </c>
     </row>
